--- a/pred_ohlcv/54_21/2019-11-17 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 DVP ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-885281.5072422039</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-4541211.392642203</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4536658.671942202</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4536658.671942202</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4536606.671942202</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4555250.541142202</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4555198.541142202</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4555537.579142202</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4539537.579142202</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4539485.579142202</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4578701.628742201</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4581101.628742201</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-4578701.628742201</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4578649.628742201</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4549553.379342201</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4474474.814942202</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4468626.884542202</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4468626.884542202</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4511746.085942201</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4445152.480942201</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-4445152.480942201</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4184032.727742201</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4184032.727742201</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4892449.4592422</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4892017.8031422</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4888609.9052422</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4450484.7298422</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4450484.7298422</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1332068.360242201</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1267070.894342201</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2092378.795242201</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>640522.2105814398</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>818072.5497902894</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1314840.174708304</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1018425.843553994</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1096316.217553994</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1096316.217553994</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>283558.9471539941</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>139357.4224539941</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>139357.4224539941</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>74941.41035399413</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>194856.0495539941</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>194856.0495539941</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>197857.6612539942</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>129152.6973539942</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>388431.9046539941</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>872948.3652539941</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>872948.3652539941</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>698250.6652539941</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>767851.5887539941</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1523907.540803397</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1523907.540803397</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1633681.666568883</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1628035.29863437</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1746195.660475471</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1230411.119975471</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1122534.770475471</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1431562.673575471</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1431562.673575471</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1432955.570875471</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1304478.239529569</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>833174.8199295694</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>719484.4299295694</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1163234.395829569</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1089998.996718826</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1012716.882318826</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1524181.801218826</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1554269.697518826</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1531731.631018826</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1456852.519918825</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1411874.467118826</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1411874.467118826</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1411874.467118826</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1444303.933718825</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2217181.145908082</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>2193286.739308082</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>2186626.710008082</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>2186714.710008082</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2186714.710008082</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2011979.012108082</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1909736.439108082</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1638476.638208082</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1571179.139108082</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1571179.139108082</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-4802675.494038749</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-4802675.494038749</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-4829231.060038749</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3617534.571038749</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3617534.571038749</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-17 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 DVP ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-885281.5072422039</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4539537.579142202</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4539485.579142202</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4578701.628742201</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4581101.628742201</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-4578701.628742201</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4578649.628742201</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4549553.379342201</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4474474.814942202</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4468626.884542202</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4468626.884542202</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4511746.085942201</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4445152.480942201</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-4445152.480942201</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4184032.727742201</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4184032.727742201</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4814061.892742201</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4892449.4592422</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4450484.7298422</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4426321.5504422</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3624155.9686422</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1860504.4517422</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1860504.4517422</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1332068.360242201</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1267070.894342201</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2092378.795242201</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>640522.2105814398</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>818072.5497902894</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1314840.174708304</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1018425.843553994</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1096316.217553994</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1096316.217553994</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>283558.9471539941</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>139357.4224539941</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>139357.4224539941</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>74941.41035399413</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>194856.0495539941</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>194856.0495539941</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>197857.6612539942</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>129152.6973539942</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>388431.9046539941</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>872948.3652539941</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>872948.3652539941</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>698250.6652539941</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>767851.5887539941</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1523907.540803397</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1523907.540803397</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1633681.666568883</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1628035.29863437</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1746195.660475471</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1230411.119975471</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1122534.770475471</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1431562.673575471</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1431562.673575471</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1432955.570875471</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1304478.239529569</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>833174.8199295694</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>719484.4299295694</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1163234.395829569</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1089998.996718826</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1012716.882318826</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1524181.801218826</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1554269.697518826</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1531731.631018826</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1456852.519918825</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1411874.467118826</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2217181.145908082</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>2193286.739308082</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>2186626.710008082</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2186714.710008082</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2011979.012108082</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-4802675.494038749</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-4802675.494038749</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-4829231.060038749</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3617534.571038749</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3617534.571038749</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
